--- a/Colaboraciones plan de ventas/Volumen por contenedor.xlsx
+++ b/Colaboraciones plan de ventas/Volumen por contenedor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Programa Optimizar/Colaboraciones plan de ventas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B01858-2436-E44A-AAAB-3631F6408AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BB83F8-20BB-2244-8075-FDE9793E09F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="500" windowWidth="13520" windowHeight="17340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volumen - Contenedor" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,8 +388,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -504,6 +510,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -549,9 +570,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,27 +933,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A331" workbookViewId="0">
-      <selection activeCell="B369" sqref="B369"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
